--- a/ComCastCRMGUIFramework/testData/testScriptData.xlsx
+++ b/ComCastCRMGUIFramework/testData/testScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12971" windowHeight="5255" firstSheet="1"/>
+    <workbookView windowWidth="23040" windowHeight="9120" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="product" sheetId="3" r:id="rId3"/>
     <sheet name="IRCTC" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="endtoend" sheetId="6" r:id="rId6"/>
+    <sheet name="smoke" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:E11"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>TC_ID</t>
   </si>
@@ -191,6 +192,207 @@
   </si>
   <si>
     <t>PRICE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Manufacturer  Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Manufacturer   UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manufacturer     password</t>
+  </si>
+  <si>
+    <t>Manufacturer  email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ActualAlert Result(manufacturer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ActualWelcomeResult()</t>
+  </si>
+  <si>
+    <t>E2E_TS_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          GirijaSankar</t>
+  </si>
+  <si>
+    <t>sankar</t>
+  </si>
+  <si>
+    <t>sankarp</t>
+  </si>
+  <si>
+    <t>sankar377@gmail.com</t>
+  </si>
+  <si>
+    <t>Manufacturer Added Successfully</t>
+  </si>
+  <si>
+    <t>Add Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Retailer  username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Retailer  password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Retailer phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retailer email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retailer Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Retailer  ActualAlert Result(Retailer)</t>
+  </si>
+  <si>
+    <t>E2E_TS_02</t>
+  </si>
+  <si>
+    <t>scmuser</t>
+  </si>
+  <si>
+    <t>girija3770@gmail.com</t>
+  </si>
+  <si>
+    <t>BALASORE,ODISHA</t>
+  </si>
+  <si>
+    <t>Retailer Added Successfully</t>
+  </si>
+  <si>
+    <t>Add Retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Distributor  name</t>
+  </si>
+  <si>
+    <t>Distributor   email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Distributor phone</t>
+  </si>
+  <si>
+    <t>Distributor address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ActualAlert Result(Retailer)</t>
+  </si>
+  <si>
+    <t>E2E_TS_03</t>
+  </si>
+  <si>
+    <t>tekpy</t>
+  </si>
+  <si>
+    <t>tekpy123@gmail.com</t>
+  </si>
+  <si>
+    <t>6371692852</t>
+  </si>
+  <si>
+    <t>IG PARK,BHUBANESWAR,ODISHA,</t>
+  </si>
+  <si>
+    <t>Distributor Added Successfully</t>
+  </si>
+  <si>
+    <t>Add Distributor</t>
+  </si>
+  <si>
+    <t>manufactureuname</t>
+  </si>
+  <si>
+    <t>manufacpassword</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Updated Quantity</t>
+  </si>
+  <si>
+    <t>E2E_TS_04</t>
+  </si>
+  <si>
+    <t>http://49.249.28.218:8081/AppServer/Supply_Chain_Management/</t>
+  </si>
+  <si>
+    <t>80HazarkaShoe</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>stylish shoe isme pura ghar chala jaeynga</t>
+  </si>
+  <si>
+    <t>Product Added Successfully</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Stock Updated Successfully</t>
+  </si>
+  <si>
+    <t>Manage Stock</t>
+  </si>
+  <si>
+    <t>Retailer uname</t>
+  </si>
+  <si>
+    <t>Retailer password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>reqQuantity</t>
+  </si>
+  <si>
+    <t>E2E_TS_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEST_CASE_ID         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManufacturerUserName    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManufacturerPassword    </t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>ST_TS_07</t>
+  </si>
+  <si>
+    <t>ST_TS_10</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -203,7 +405,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,16 +414,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,6 +442,19 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,6 +595,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,12 +608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,168 +974,219 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,7 +1724,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1470,129 +1738,129 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1621,712 +1889,712 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" ht="18" spans="1:20">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" ht="18" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2350,10 +2618,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2369,7 +2637,7 @@
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2377,7 +2645,7 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2404,13 +2672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2486,4 +2754,411 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.8888888888889" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.1111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.2222222222222" style="8" customWidth="1"/>
+    <col min="5" max="5" width="41.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.0648148148148" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.3148148148148" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.4907407407407" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.6759259259259" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="10" customFormat="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="sankar377@gmail.com" tooltip="mailto:sankar377@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId2" display="girija3770@gmail.com" tooltip="mailto:girija3770@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId3" display="tekpy123@gmail.com"/>
+    <hyperlink ref="D12" r:id="rId4" display="http://49.249.28.218:8081/AppServer/Supply_Chain_Management/"/>
+    <hyperlink ref="D15" r:id="rId4" display="http://49.249.28.218:8081/AppServer/Supply_Chain_Management/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="20.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5092592592593" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.3703703703704" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.0833333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.0648148148148" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.1481481481481" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.537037037037" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>